--- a/build/input/dram_exports_all.xlsx
+++ b/build/input/dram_exports_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hj/Documents/GitHub/JapanKoreaTradeConflict/build/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD87BD-C811-0045-8658-56A143FB1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563D05C8-45CE-1849-B76D-6FA426968E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25600" yWindow="-3720" windowWidth="25600" windowHeight="26560" xr2:uid="{9E2AFA01-DD29-7A48-9535-6F608A36656A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="193">
   <si>
     <t>나이지리아</t>
   </si>
@@ -613,6 +613,22 @@
   </si>
   <si>
     <t>Tradeamount_dollar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Prin</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>US</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1010,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7A40AFD-169E-B24D-A8CC-51C51D53D314}">
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
+      <selection activeCell="H232" sqref="H232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3607,7 +3623,598 @@
       <c r="E184" s="2"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="D185" s="2"/>
+      <c r="B185" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D185" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="B186" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D186" s="6">
+        <v>1165458</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="B187" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D187" s="6">
+        <v>529118</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="B188" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D188" s="6">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="B189" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189" s="6">
+        <v>26265</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="B190" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190" s="6">
+        <v>591392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="B191" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D191" s="6">
+        <v>2296949</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="B192" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" s="6">
+        <v>402179775</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D193" s="6">
+        <v>248934</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D194" s="6">
+        <v>34592</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D195" s="6">
+        <v>147360</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D196" s="6">
+        <v>5333823</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D197" s="6">
+        <v>6171434</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="6">
+        <v>12114185</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D199" s="6">
+        <v>232764</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D200" s="6">
+        <v>7641</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D201" s="6">
+        <v>474971</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D202" s="6">
+        <v>2954300</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C203" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D203" s="6">
+        <v>734139</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C204" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D204" s="6">
+        <v>7938879</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C205" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D205" s="6">
+        <v>14257693</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D206" s="6">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D207" s="6">
+        <v>426974545</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C208" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D208" s="6">
+        <v>37943179</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C209" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D209" s="6">
+        <v>27150</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D210" s="6">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D211" s="6">
+        <v>1749660</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D212" s="6">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D213" s="6">
+        <v>31664</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D214" s="6">
+        <v>1008240</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D215" s="6">
+        <v>22940</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4">
+      <c r="B216" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D216" s="6">
+        <v>128103</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4">
+      <c r="B217" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C217" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D217" s="6">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4">
+      <c r="B218" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C218" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D218" s="6">
+        <v>106464037</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4">
+      <c r="B219" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D219" s="6">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4">
+      <c r="B220" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C220" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D220" s="6">
+        <v>3866</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4">
+      <c r="B221" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D221" s="6">
+        <v>397002</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4">
+      <c r="B222" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D222" s="6">
+        <v>6234</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4">
+      <c r="B223" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D223" s="6">
+        <v>625657154</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4">
+      <c r="B224" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D224" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4">
+      <c r="B225" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D225" s="6">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4">
+      <c r="B226" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" s="6">
+        <v>444677594</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4">
+      <c r="B227" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D227" s="6">
+        <v>153094</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4">
+      <c r="B228" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D228" s="6">
+        <v>1214356</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4">
+      <c r="B229" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D229" s="6">
+        <v>327153</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4">
+      <c r="B230" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D230" s="6">
+        <v>1511334604</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4">
+      <c r="B231" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D231" s="6">
+        <v>117673891</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4">
+      <c r="B232" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D232" s="6">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4">
+      <c r="B233" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D233" s="6">
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4">
+      <c r="B234" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D234" s="6">
+        <v>112795</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4">
+      <c r="B235" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D235" s="6">
+        <v>3402</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4">
+      <c r="B236" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D236" s="6">
+        <v>1597926</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4">
+      <c r="B237" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D237" s="6">
+        <v>7704</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4">
+      <c r="B238" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D238" s="6">
+        <v>308961</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
